--- a/database - circanual/percentage offspring/SM2-Sire-percentage of offspring by parent birthmonth.xlsx
+++ b/database - circanual/percentage offspring/SM2-Sire-percentage of offspring by parent birthmonth.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,44 +434,44 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>11.79775280898876</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="C2">
-        <v>9.831460674157304</v>
+        <v>9.452736318407959</v>
       </c>
       <c r="D2">
-        <v>10.1123595505618</v>
+        <v>10.19900497512438</v>
       </c>
       <c r="E2">
-        <v>5.337078651685393</v>
+        <v>6.218905472636816</v>
       </c>
       <c r="F2">
-        <v>9.831460674157304</v>
+        <v>10.44776119402985</v>
       </c>
       <c r="G2">
-        <v>9.269662921348315</v>
+        <v>9.950248756218906</v>
       </c>
       <c r="H2">
-        <v>7.02247191011236</v>
+        <v>8.955223880597014</v>
       </c>
       <c r="I2">
-        <v>5.337078651685393</v>
+        <v>6.467661691542288</v>
       </c>
       <c r="J2">
-        <v>8.707865168539326</v>
+        <v>7.711442786069651</v>
       </c>
       <c r="K2">
-        <v>8.146067415730338</v>
+        <v>7.213930348258707</v>
       </c>
       <c r="L2">
-        <v>6.179775280898876</v>
+        <v>5.472636815920398</v>
       </c>
       <c r="M2">
-        <v>8.426966292134832</v>
+        <v>7.462686567164178</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -479,9 +479,30 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>3.571428571428571</v>
+      </c>
+      <c r="H3">
+        <v>7.142857142857142</v>
+      </c>
+      <c r="I3">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="L3">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="M3">
+        <v>10.71428571428571</v>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -490,44 +511,44 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16.77852348993289</v>
+        <v>17.17791411042945</v>
       </c>
       <c r="C4">
-        <v>13.42281879194631</v>
+        <v>9.202453987730062</v>
       </c>
       <c r="D4">
-        <v>9.395973154362416</v>
+        <v>11.04294478527607</v>
       </c>
       <c r="E4">
-        <v>6.04026845637584</v>
+        <v>7.361963190184049</v>
       </c>
       <c r="F4">
-        <v>4.697986577181208</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="G4">
-        <v>2.013422818791946</v>
+        <v>3.680981595092025</v>
       </c>
       <c r="H4">
-        <v>2.684563758389262</v>
+        <v>4.294478527607362</v>
       </c>
       <c r="I4">
-        <v>7.38255033557047</v>
+        <v>8.588957055214724</v>
       </c>
       <c r="J4">
-        <v>6.04026845637584</v>
+        <v>9.202453987730062</v>
       </c>
       <c r="K4">
-        <v>7.38255033557047</v>
+        <v>4.907975460122699</v>
       </c>
       <c r="L4">
-        <v>17.4496644295302</v>
+        <v>14.11042944785276</v>
       </c>
       <c r="M4">
-        <v>6.711409395973154</v>
+        <v>6.134969325153374</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -536,44 +557,44 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11.51960784313725</v>
+        <v>9.497206703910614</v>
       </c>
       <c r="C5">
-        <v>7.598039215686274</v>
+        <v>8.938547486033519</v>
       </c>
       <c r="D5">
-        <v>10.04901960784314</v>
+        <v>9.497206703910614</v>
       </c>
       <c r="E5">
-        <v>8.578431372549019</v>
+        <v>11.1731843575419</v>
       </c>
       <c r="F5">
-        <v>5.637254901960785</v>
+        <v>7.262569832402235</v>
       </c>
       <c r="G5">
-        <v>6.862745098039216</v>
+        <v>6.70391061452514</v>
       </c>
       <c r="H5">
-        <v>7.107843137254902</v>
+        <v>13.40782122905028</v>
       </c>
       <c r="I5">
-        <v>7.84313725490196</v>
+        <v>3.910614525139665</v>
       </c>
       <c r="J5">
-        <v>7.598039215686274</v>
+        <v>5.027932960893855</v>
       </c>
       <c r="K5">
-        <v>9.558823529411764</v>
+        <v>7.82122905027933</v>
       </c>
       <c r="L5">
-        <v>9.313725490196079</v>
+        <v>8.379888268156424</v>
       </c>
       <c r="M5">
-        <v>8.333333333333332</v>
+        <v>8.379888268156424</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -582,44 +603,35 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="C6">
-        <v>7.931034482758621</v>
+        <v>3.80952380952381</v>
       </c>
       <c r="D6">
-        <v>6.206896551724138</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="E6">
-        <v>8.620689655172415</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="F6">
-        <v>11.72413793103448</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="G6">
-        <v>8.96551724137931</v>
+        <v>7.61904761904762</v>
       </c>
       <c r="H6">
-        <v>7.586206896551724</v>
-      </c>
-      <c r="I6">
-        <v>6.896551724137931</v>
-      </c>
-      <c r="J6">
-        <v>5.172413793103448</v>
-      </c>
-      <c r="K6">
-        <v>11.37931034482759</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="L6">
-        <v>6.896551724137931</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M6">
-        <v>8.620689655172415</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -628,41 +640,41 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10.52631578947368</v>
+        <v>12.12121212121212</v>
       </c>
       <c r="C7">
-        <v>12.28070175438596</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="D7">
-        <v>15.78947368421053</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="E7">
-        <v>8.771929824561402</v>
-      </c>
-      <c r="F7">
-        <v>14.03508771929824</v>
+        <v>16.66666666666666</v>
+      </c>
+      <c r="G7">
+        <v>10.60606060606061</v>
       </c>
       <c r="H7">
-        <v>5.263157894736842</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="I7">
-        <v>7.017543859649122</v>
+        <v>10.60606060606061</v>
       </c>
       <c r="J7">
-        <v>10.52631578947368</v>
+        <v>7.575757575757576</v>
       </c>
       <c r="K7">
-        <v>5.263157894736842</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="L7">
-        <v>7.017543859649122</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="M7">
-        <v>3.508771929824561</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -671,35 +683,41 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13.88888888888889</v>
+        <v>17.21311475409836</v>
       </c>
       <c r="C8">
-        <v>16.66666666666666</v>
+        <v>13.11475409836066</v>
       </c>
       <c r="D8">
-        <v>19.44444444444445</v>
+        <v>11.47540983606557</v>
+      </c>
+      <c r="E8">
+        <v>8.196721311475409</v>
       </c>
       <c r="F8">
-        <v>2.777777777777778</v>
+        <v>9.016393442622951</v>
       </c>
       <c r="H8">
-        <v>11.11111111111111</v>
+        <v>3.278688524590164</v>
       </c>
       <c r="I8">
-        <v>13.88888888888889</v>
+        <v>9.016393442622951</v>
       </c>
       <c r="J8">
-        <v>5.555555555555555</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="K8">
-        <v>8.333333333333332</v>
+        <v>9.016393442622951</v>
+      </c>
+      <c r="L8">
+        <v>5.737704918032787</v>
       </c>
       <c r="M8">
-        <v>8.333333333333332</v>
+        <v>12.29508196721311</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -709,7 +727,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -755,7 +773,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -801,7 +819,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -810,44 +828,44 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8.91566265060241</v>
+        <v>8.615384615384615</v>
       </c>
       <c r="C12">
-        <v>4.819277108433735</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="D12">
-        <v>6.506024096385541</v>
+        <v>6.769230769230769</v>
       </c>
       <c r="E12">
-        <v>13.25301204819277</v>
+        <v>14.76923076923077</v>
       </c>
       <c r="F12">
-        <v>9.879518072289157</v>
+        <v>10.76923076923077</v>
       </c>
       <c r="G12">
-        <v>6.746987951807229</v>
+        <v>4.615384615384616</v>
       </c>
       <c r="H12">
-        <v>10.8433734939759</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>11.32530120481928</v>
+        <v>8.615384615384615</v>
       </c>
       <c r="J12">
-        <v>4.337349397590361</v>
+        <v>4.923076923076923</v>
       </c>
       <c r="K12">
-        <v>6.746987951807229</v>
+        <v>8.615384615384615</v>
       </c>
       <c r="L12">
-        <v>8.433734939759036</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="M12">
-        <v>8.19277108433735</v>
+        <v>10.46153846153846</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -856,44 +874,44 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3.603603603603604</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="C13">
-        <v>4.504504504504505</v>
+        <v>8.260869565217391</v>
       </c>
       <c r="D13">
-        <v>2.702702702702703</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="E13">
-        <v>16.21621621621622</v>
+        <v>12.60869565217391</v>
       </c>
       <c r="F13">
-        <v>18.91891891891892</v>
+        <v>16.95652173913043</v>
       </c>
       <c r="G13">
-        <v>7.207207207207207</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="H13">
-        <v>9.009009009009009</v>
+        <v>9.130434782608695</v>
       </c>
       <c r="I13">
-        <v>5.405405405405405</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="J13">
-        <v>6.306306306306306</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="K13">
-        <v>9.90990990990991</v>
+        <v>9.130434782608695</v>
       </c>
       <c r="L13">
-        <v>5.405405405405405</v>
+        <v>3.91304347826087</v>
       </c>
       <c r="M13">
-        <v>10.81081081081081</v>
+        <v>5.217391304347826</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2000-2004</t>
+          <t>2002-2006</t>
         </is>
       </c>
     </row>
@@ -902,44 +920,44 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>3.508771929824561</v>
+        <v>4.8</v>
       </c>
       <c r="C14">
-        <v>4.093567251461988</v>
+        <v>3.2</v>
       </c>
       <c r="D14">
-        <v>6.432748538011696</v>
+        <v>4.8</v>
       </c>
       <c r="E14">
-        <v>8.771929824561402</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="F14">
-        <v>18.12865497076023</v>
+        <v>19.2</v>
       </c>
       <c r="G14">
-        <v>11.11111111111111</v>
+        <v>9.6</v>
       </c>
       <c r="H14">
-        <v>18.71345029239766</v>
+        <v>16.8</v>
       </c>
       <c r="I14">
-        <v>12.28070175438596</v>
+        <v>11.2</v>
       </c>
       <c r="J14">
-        <v>4.678362573099415</v>
+        <v>6.4</v>
       </c>
       <c r="K14">
-        <v>3.508771929824561</v>
+        <v>4.8</v>
       </c>
       <c r="L14">
-        <v>5.263157894736842</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="M14">
-        <v>3.508771929824561</v>
+        <v>4.8</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -948,44 +966,44 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>5.084745762711865</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="C15">
-        <v>2.542372881355933</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="D15">
-        <v>2.542372881355933</v>
+        <v>4.838709677419355</v>
       </c>
       <c r="E15">
-        <v>3.389830508474576</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="F15">
-        <v>3.389830508474576</v>
+        <v>6.451612903225806</v>
       </c>
       <c r="G15">
-        <v>5.084745762711865</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="H15">
-        <v>8.474576271186439</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="I15">
-        <v>15.25423728813559</v>
+        <v>12.90322580645161</v>
       </c>
       <c r="J15">
-        <v>22.03389830508474</v>
+        <v>19.35483870967742</v>
       </c>
       <c r="K15">
-        <v>12.71186440677966</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="L15">
-        <v>10.16949152542373</v>
+        <v>3.225806451612903</v>
       </c>
       <c r="M15">
-        <v>9.322033898305085</v>
+        <v>8.064516129032258</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -994,44 +1012,44 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>12.65060240963855</v>
+        <v>8.176100628930817</v>
       </c>
       <c r="C16">
-        <v>10.24096385542169</v>
+        <v>11.94968553459119</v>
       </c>
       <c r="D16">
-        <v>15.66265060240964</v>
+        <v>17.61006289308176</v>
       </c>
       <c r="E16">
-        <v>9.638554216867471</v>
+        <v>11.94968553459119</v>
       </c>
       <c r="F16">
-        <v>2.409638554216868</v>
+        <v>6.289308176100629</v>
       </c>
       <c r="G16">
-        <v>2.409638554216868</v>
+        <v>0.628930817610063</v>
       </c>
       <c r="H16">
-        <v>4.819277108433735</v>
+        <v>3.144654088050315</v>
       </c>
       <c r="I16">
-        <v>8.433734939759036</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="J16">
-        <v>9.036144578313253</v>
+        <v>3.773584905660377</v>
       </c>
       <c r="K16">
-        <v>4.819277108433735</v>
+        <v>6.918238993710692</v>
       </c>
       <c r="L16">
-        <v>15.06024096385542</v>
+        <v>15.09433962264151</v>
       </c>
       <c r="M16">
-        <v>4.819277108433735</v>
+        <v>6.918238993710692</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1040,44 +1058,38 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>8.571428571428571</v>
+        <v>15.8273381294964</v>
       </c>
       <c r="C17">
-        <v>4.761904761904762</v>
+        <v>4.316546762589928</v>
       </c>
       <c r="D17">
-        <v>4.761904761904762</v>
+        <v>0.7194244604316548</v>
       </c>
       <c r="E17">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F17">
-        <v>6.190476190476191</v>
-      </c>
-      <c r="G17">
-        <v>5.714285714285714</v>
+        <v>4.316546762589928</v>
       </c>
       <c r="H17">
-        <v>15.23809523809524</v>
+        <v>5.755395683453238</v>
       </c>
       <c r="I17">
-        <v>7.142857142857142</v>
+        <v>8.633093525179856</v>
       </c>
       <c r="J17">
-        <v>4.285714285714286</v>
+        <v>5.035971223021583</v>
       </c>
       <c r="K17">
-        <v>14.28571428571428</v>
+        <v>20.86330935251799</v>
       </c>
       <c r="L17">
-        <v>14.76190476190476</v>
+        <v>21.58273381294964</v>
       </c>
       <c r="M17">
-        <v>7.61904761904762</v>
+        <v>12.94964028776978</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1086,44 +1098,44 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>10.84905660377358</v>
+        <v>8.372093023255815</v>
       </c>
       <c r="C18">
-        <v>2.830188679245283</v>
+        <v>2.790697674418605</v>
       </c>
       <c r="D18">
-        <v>8.490566037735849</v>
+        <v>8.837209302325581</v>
       </c>
       <c r="E18">
-        <v>10.84905660377358</v>
+        <v>12.09302325581395</v>
       </c>
       <c r="F18">
-        <v>5.188679245283019</v>
+        <v>5.581395348837209</v>
       </c>
       <c r="G18">
-        <v>8.490566037735849</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="H18">
-        <v>8.018867924528301</v>
+        <v>10.69767441860465</v>
       </c>
       <c r="I18">
-        <v>6.60377358490566</v>
+        <v>7.441860465116279</v>
       </c>
       <c r="J18">
-        <v>8.962264150943396</v>
+        <v>9.302325581395349</v>
       </c>
       <c r="K18">
-        <v>6.132075471698113</v>
+        <v>6.976744186046512</v>
       </c>
       <c r="L18">
-        <v>12.26415094339623</v>
+        <v>10.69767441860465</v>
       </c>
       <c r="M18">
-        <v>11.32075471698113</v>
+        <v>7.906976744186046</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1132,44 +1144,44 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>6.387665198237885</v>
+        <v>5.412371134020619</v>
       </c>
       <c r="C19">
-        <v>6.387665198237885</v>
+        <v>6.443298969072164</v>
       </c>
       <c r="D19">
-        <v>7.488986784140969</v>
+        <v>7.474226804123711</v>
       </c>
       <c r="E19">
-        <v>11.23348017621145</v>
+        <v>10.30927835051546</v>
       </c>
       <c r="F19">
-        <v>10.5726872246696</v>
+        <v>12.37113402061856</v>
       </c>
       <c r="G19">
-        <v>7.929515418502203</v>
+        <v>7.474226804123711</v>
       </c>
       <c r="H19">
-        <v>5.726872246696035</v>
+        <v>4.896907216494846</v>
       </c>
       <c r="I19">
-        <v>9.251101321585903</v>
+        <v>9.020618556701031</v>
       </c>
       <c r="J19">
-        <v>8.590308370044053</v>
+        <v>8.762886597938143</v>
       </c>
       <c r="K19">
-        <v>8.590308370044053</v>
+        <v>9.020618556701031</v>
       </c>
       <c r="L19">
-        <v>8.590308370044053</v>
+        <v>9.020618556701031</v>
       </c>
       <c r="M19">
-        <v>9.251101321585903</v>
+        <v>9.793814432989691</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1178,44 +1190,44 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>14.03940886699507</v>
+        <v>12.8125</v>
       </c>
       <c r="C20">
-        <v>7.881773399014778</v>
+        <v>6.875000000000001</v>
       </c>
       <c r="D20">
-        <v>9.852216748768473</v>
+        <v>10.3125</v>
       </c>
       <c r="E20">
-        <v>10.3448275862069</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>10.83743842364532</v>
+        <v>10.625</v>
       </c>
       <c r="G20">
-        <v>8.374384236453201</v>
+        <v>10.625</v>
       </c>
       <c r="H20">
-        <v>4.187192118226601</v>
+        <v>5.3125</v>
       </c>
       <c r="I20">
-        <v>6.896551724137931</v>
+        <v>6.875000000000001</v>
       </c>
       <c r="J20">
-        <v>1.724137931034483</v>
+        <v>2.1875</v>
       </c>
       <c r="K20">
-        <v>3.448275862068965</v>
+        <v>1.875</v>
       </c>
       <c r="L20">
-        <v>8.374384236453201</v>
+        <v>8.4375</v>
       </c>
       <c r="M20">
-        <v>14.03940886699507</v>
+        <v>14.0625</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1224,44 +1236,44 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>10.71428571428571</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="C21">
-        <v>11.9047619047619</v>
+        <v>7.017543859649122</v>
       </c>
       <c r="D21">
-        <v>14.88095238095238</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="E21">
-        <v>8.333333333333332</v>
+        <v>9.824561403508772</v>
       </c>
       <c r="F21">
-        <v>11.9047619047619</v>
+        <v>13.68421052631579</v>
       </c>
       <c r="G21">
-        <v>12.5</v>
+        <v>12.28070175438596</v>
       </c>
       <c r="H21">
-        <v>2.976190476190476</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="I21">
-        <v>6.547619047619048</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="J21">
-        <v>4.166666666666666</v>
+        <v>5.614035087719298</v>
       </c>
       <c r="K21">
-        <v>7.738095238095238</v>
+        <v>6.315789473684211</v>
       </c>
       <c r="L21">
-        <v>2.976190476190476</v>
+        <v>3.157894736842105</v>
       </c>
       <c r="M21">
-        <v>5.357142857142857</v>
+        <v>5.964912280701754</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1270,38 +1282,44 @@
         <v>9</v>
       </c>
       <c r="B22">
-        <v>7.792207792207792</v>
+        <v>7.048458149779736</v>
       </c>
       <c r="C22">
-        <v>6.493506493506493</v>
+        <v>6.167400881057269</v>
       </c>
       <c r="D22">
-        <v>3.896103896103896</v>
+        <v>9.251101321585903</v>
       </c>
       <c r="E22">
-        <v>22.07792207792208</v>
+        <v>15.85903083700441</v>
       </c>
       <c r="F22">
-        <v>20.77922077922078</v>
+        <v>15.85903083700441</v>
       </c>
       <c r="G22">
-        <v>10.38961038961039</v>
+        <v>6.607929515418502</v>
       </c>
       <c r="H22">
-        <v>9.090909090909092</v>
+        <v>8.810572687224671</v>
       </c>
       <c r="I22">
-        <v>1.298701298701299</v>
+        <v>8.370044052863436</v>
+      </c>
+      <c r="J22">
+        <v>4.405286343612335</v>
       </c>
       <c r="K22">
-        <v>11.68831168831169</v>
+        <v>7.929515418502203</v>
       </c>
       <c r="L22">
-        <v>6.493506493506493</v>
+        <v>4.845814977973569</v>
+      </c>
+      <c r="M22">
+        <v>4.845814977973569</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1309,9 +1327,39 @@
       <c r="A23">
         <v>10</v>
       </c>
+      <c r="B23">
+        <v>10.25641025641026</v>
+      </c>
+      <c r="C23">
+        <v>7.692307692307693</v>
+      </c>
+      <c r="F23">
+        <v>6.41025641025641</v>
+      </c>
+      <c r="G23">
+        <v>10.25641025641026</v>
+      </c>
+      <c r="H23">
+        <v>10.25641025641026</v>
+      </c>
+      <c r="I23">
+        <v>8.974358974358974</v>
+      </c>
+      <c r="J23">
+        <v>12.82051282051282</v>
+      </c>
+      <c r="K23">
+        <v>12.82051282051282</v>
+      </c>
+      <c r="L23">
+        <v>10.25641025641026</v>
+      </c>
+      <c r="M23">
+        <v>10.25641025641026</v>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1320,44 +1368,44 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>7.958477508650519</v>
+        <v>7.122507122507122</v>
       </c>
       <c r="C24">
-        <v>10.03460207612457</v>
+        <v>9.686609686609685</v>
       </c>
       <c r="D24">
-        <v>9.342560553633218</v>
+        <v>7.977207977207977</v>
       </c>
       <c r="E24">
-        <v>11.76470588235294</v>
+        <v>11.96581196581197</v>
       </c>
       <c r="F24">
-        <v>8.304498269896193</v>
+        <v>10.82621082621083</v>
       </c>
       <c r="G24">
-        <v>5.88235294117647</v>
+        <v>6.552706552706552</v>
       </c>
       <c r="H24">
-        <v>7.958477508650519</v>
+        <v>6.552706552706552</v>
       </c>
       <c r="I24">
-        <v>8.650519031141869</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="J24">
-        <v>6.920415224913495</v>
+        <v>8.831908831908832</v>
       </c>
       <c r="K24">
-        <v>10.03460207612457</v>
+        <v>9.971509971509972</v>
       </c>
       <c r="L24">
-        <v>7.26643598615917</v>
+        <v>7.122507122507122</v>
       </c>
       <c r="M24">
-        <v>5.88235294117647</v>
+        <v>5.982905982905983</v>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1366,44 +1414,32 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>6.666666666666667</v>
+        <v>6.557377049180328</v>
       </c>
       <c r="C25">
-        <v>12.22222222222222</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25">
-        <v>6.111111111111111</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>6.666666666666667</v>
+        <v>13.11475409836066</v>
       </c>
       <c r="H25">
-        <v>6.666666666666667</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="I25">
-        <v>8.888888888888889</v>
+        <v>13.11475409836066</v>
       </c>
       <c r="J25">
-        <v>13.33333333333333</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="K25">
-        <v>12.77777777777778</v>
+        <v>21.31147540983606</v>
       </c>
       <c r="L25">
-        <v>8.333333333333332</v>
+        <v>19.67213114754098</v>
       </c>
       <c r="M25">
-        <v>3.333333333333333</v>
+        <v>9.836065573770492</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2005-2009</t>
+          <t>2007-2011</t>
         </is>
       </c>
     </row>
@@ -1412,44 +1448,44 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>11.39240506329114</v>
+        <v>7.758620689655173</v>
       </c>
       <c r="C26">
-        <v>7.59493670886076</v>
+        <v>7.112068965517242</v>
       </c>
       <c r="D26">
-        <v>8.860759493670885</v>
+        <v>11.85344827586207</v>
       </c>
       <c r="E26">
-        <v>5.063291139240507</v>
+        <v>5.387931034482758</v>
       </c>
       <c r="F26">
-        <v>2.531645569620253</v>
+        <v>7.543103448275862</v>
       </c>
       <c r="G26">
-        <v>6.329113924050633</v>
+        <v>9.051724137931034</v>
       </c>
       <c r="H26">
-        <v>6.329113924050633</v>
+        <v>8.836206896551724</v>
       </c>
       <c r="I26">
-        <v>11.39240506329114</v>
+        <v>9.482758620689655</v>
       </c>
       <c r="J26">
-        <v>15.18987341772152</v>
+        <v>9.482758620689655</v>
       </c>
       <c r="K26">
-        <v>12.65822784810127</v>
+        <v>9.051724137931034</v>
       </c>
       <c r="L26">
-        <v>3.79746835443038</v>
+        <v>6.46551724137931</v>
       </c>
       <c r="M26">
-        <v>8.860759493670885</v>
+        <v>7.974137931034483</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1507,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1480,44 +1516,41 @@
         <v>3</v>
       </c>
       <c r="B28">
-        <v>5.084745762711865</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="C28">
-        <v>10.16949152542373</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="D28">
-        <v>14.68926553672316</v>
-      </c>
-      <c r="E28">
-        <v>3.389830508474576</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="F28">
-        <v>5.084745762711865</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="G28">
-        <v>3.954802259887006</v>
+        <v>5.185185185185185</v>
       </c>
       <c r="H28">
-        <v>7.344632768361582</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="I28">
-        <v>11.86440677966102</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="J28">
-        <v>9.03954802259887</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="K28">
-        <v>9.03954802259887</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="L28">
-        <v>12.42937853107345</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="M28">
-        <v>7.909604519774012</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1525,36 +1558,9 @@
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29">
-        <v>20.51282051282051</v>
-      </c>
-      <c r="C29">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="D29">
-        <v>1.282051282051282</v>
-      </c>
-      <c r="E29">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="I29">
-        <v>5.128205128205128</v>
-      </c>
-      <c r="J29">
-        <v>8.974358974358974</v>
-      </c>
-      <c r="K29">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L29">
-        <v>17.94871794871795</v>
-      </c>
-      <c r="M29">
-        <v>14.1025641025641</v>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1563,44 +1569,44 @@
         <v>5</v>
       </c>
       <c r="B30">
-        <v>16</v>
+        <v>17.69911504424779</v>
       </c>
       <c r="C30">
-        <v>4.666666666666667</v>
+        <v>6.194690265486726</v>
       </c>
       <c r="D30">
-        <v>10.66666666666667</v>
+        <v>10.61946902654867</v>
       </c>
       <c r="E30">
-        <v>7.333333333333333</v>
+        <v>5.309734513274337</v>
       </c>
       <c r="F30">
-        <v>12.66666666666667</v>
+        <v>14.15929203539823</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>8.849557522123893</v>
       </c>
       <c r="H30">
-        <v>6.666666666666667</v>
+        <v>3.539823008849558</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>6.194690265486726</v>
       </c>
       <c r="J30">
-        <v>5.333333333333334</v>
+        <v>6.194690265486726</v>
       </c>
       <c r="K30">
-        <v>4.666666666666667</v>
+        <v>4.424778761061947</v>
       </c>
       <c r="L30">
-        <v>6</v>
+        <v>4.424778761061947</v>
       </c>
       <c r="M30">
-        <v>12</v>
+        <v>12.38938053097345</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1652,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1655,41 +1661,44 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>7.692307692307693</v>
+        <v>5.932203389830509</v>
       </c>
       <c r="C32">
-        <v>3.296703296703297</v>
+        <v>5.084745762711865</v>
       </c>
       <c r="D32">
-        <v>7.692307692307693</v>
+        <v>5.932203389830509</v>
       </c>
       <c r="E32">
-        <v>10.98901098901099</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="F32">
-        <v>14.28571428571428</v>
+        <v>16.10169491525424</v>
       </c>
       <c r="G32">
-        <v>5.494505494505495</v>
+        <v>4.23728813559322</v>
       </c>
       <c r="H32">
-        <v>10.98901098901099</v>
+        <v>16.10169491525424</v>
       </c>
       <c r="I32">
-        <v>7.692307692307693</v>
+        <v>9.322033898305085</v>
+      </c>
+      <c r="J32">
+        <v>1.694915254237288</v>
       </c>
       <c r="K32">
-        <v>12.08791208791209</v>
+        <v>10.16949152542373</v>
       </c>
       <c r="L32">
-        <v>10.98901098901099</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="M32">
-        <v>8.791208791208792</v>
+        <v>8.474576271186439</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1698,44 +1707,44 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>9.693877551020408</v>
+        <v>10.99476439790576</v>
       </c>
       <c r="C33">
-        <v>1.530612244897959</v>
+        <v>7.853403141361256</v>
       </c>
       <c r="D33">
-        <v>11.73469387755102</v>
+        <v>12.56544502617801</v>
       </c>
       <c r="E33">
-        <v>10.71428571428571</v>
+        <v>9.424083769633508</v>
       </c>
       <c r="F33">
-        <v>11.73469387755102</v>
+        <v>7.329842931937172</v>
       </c>
       <c r="G33">
-        <v>18.36734693877551</v>
+        <v>18.32460732984293</v>
       </c>
       <c r="H33">
-        <v>5.102040816326531</v>
+        <v>4.712041884816754</v>
       </c>
       <c r="I33">
-        <v>9.693877551020408</v>
+        <v>4.712041884816754</v>
       </c>
       <c r="J33">
-        <v>4.591836734693878</v>
+        <v>3.664921465968586</v>
       </c>
       <c r="K33">
-        <v>2.551020408163265</v>
+        <v>3.141361256544502</v>
       </c>
       <c r="L33">
-        <v>5.102040816326531</v>
+        <v>7.853403141361256</v>
       </c>
       <c r="M33">
-        <v>9.183673469387756</v>
+        <v>9.424083769633508</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1744,44 +1753,44 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <v>5.833333333333333</v>
+        <v>5.164319248826291</v>
       </c>
       <c r="C34">
-        <v>4.444444444444445</v>
+        <v>3.755868544600939</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>9.389671361502346</v>
       </c>
       <c r="E34">
-        <v>11.66666666666667</v>
+        <v>10.7981220657277</v>
       </c>
       <c r="F34">
-        <v>14.72222222222222</v>
+        <v>15.49295774647887</v>
       </c>
       <c r="G34">
-        <v>10.55555555555556</v>
+        <v>14.55399061032864</v>
       </c>
       <c r="H34">
-        <v>8.333333333333332</v>
+        <v>7.981220657276995</v>
       </c>
       <c r="I34">
-        <v>9.722222222222223</v>
+        <v>7.981220657276995</v>
       </c>
       <c r="J34">
-        <v>7.5</v>
+        <v>7.981220657276995</v>
       </c>
       <c r="K34">
-        <v>6.944444444444445</v>
+        <v>7.511737089201878</v>
       </c>
       <c r="L34">
-        <v>3.888888888888889</v>
+        <v>3.755868544600939</v>
       </c>
       <c r="M34">
-        <v>6.388888888888888</v>
+        <v>5.633802816901409</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1790,44 +1799,41 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>5.970149253731343</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="C35">
-        <v>6.467661691542288</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>5.472636815920398</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="E35">
-        <v>5.970149253731343</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="F35">
-        <v>10.44776119402985</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="G35">
-        <v>13.43283582089552</v>
+        <v>14.44444444444444</v>
       </c>
       <c r="H35">
-        <v>13.43283582089552</v>
+        <v>12.22222222222222</v>
       </c>
       <c r="I35">
-        <v>7.462686567164178</v>
+        <v>7.222222222222221</v>
       </c>
       <c r="J35">
-        <v>11.44278606965174</v>
+        <v>7.777777777777778</v>
       </c>
       <c r="K35">
-        <v>8.457711442786071</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L35">
-        <v>7.462686567164178</v>
-      </c>
-      <c r="M35">
-        <v>3.980099502487562</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1836,44 +1842,38 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>6.299212598425196</v>
-      </c>
-      <c r="C36">
-        <v>7.874015748031496</v>
+        <v>3.409090909090909</v>
       </c>
       <c r="D36">
-        <v>7.086614173228346</v>
+        <v>5.681818181818182</v>
       </c>
       <c r="E36">
-        <v>8.661417322834646</v>
+        <v>12.5</v>
       </c>
       <c r="F36">
-        <v>14.96062992125984</v>
+        <v>19.31818181818182</v>
       </c>
       <c r="G36">
-        <v>4.724409448818897</v>
+        <v>11.36363636363636</v>
       </c>
       <c r="H36">
-        <v>3.937007874015748</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="I36">
-        <v>5.511811023622047</v>
+        <v>14.77272727272727</v>
       </c>
       <c r="J36">
-        <v>13.38582677165354</v>
+        <v>7.954545454545454</v>
       </c>
       <c r="K36">
-        <v>11.02362204724409</v>
-      </c>
-      <c r="L36">
-        <v>7.874015748031496</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="M36">
-        <v>8.661417322834646</v>
+        <v>2.272727272727273</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2010-2014</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
@@ -1919,478 +1919,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2010-2014</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>7.172995780590717</v>
-      </c>
-      <c r="C38">
-        <v>5.69620253164557</v>
-      </c>
-      <c r="D38">
-        <v>11.39240506329114</v>
-      </c>
-      <c r="E38">
-        <v>6.540084388185655</v>
-      </c>
-      <c r="F38">
-        <v>8.649789029535865</v>
-      </c>
-      <c r="G38">
-        <v>9.071729957805907</v>
-      </c>
-      <c r="H38">
-        <v>9.282700421940929</v>
-      </c>
-      <c r="I38">
-        <v>8.227848101265822</v>
-      </c>
-      <c r="J38">
-        <v>8.227848101265822</v>
-      </c>
-      <c r="K38">
-        <v>8.860759493670885</v>
-      </c>
-      <c r="L38">
-        <v>8.227848101265822</v>
-      </c>
-      <c r="M38">
-        <v>8.649789029535865</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="C39">
-        <v>8.552631578947368</v>
-      </c>
-      <c r="D39">
-        <v>8.552631578947368</v>
-      </c>
-      <c r="E39">
-        <v>7.236842105263158</v>
-      </c>
-      <c r="F39">
-        <v>6.578947368421052</v>
-      </c>
-      <c r="G39">
-        <v>7.236842105263158</v>
-      </c>
-      <c r="H39">
-        <v>5.921052631578947</v>
-      </c>
-      <c r="I39">
-        <v>7.236842105263158</v>
-      </c>
-      <c r="J39">
-        <v>9.868421052631579</v>
-      </c>
-      <c r="K39">
-        <v>9.868421052631579</v>
-      </c>
-      <c r="L39">
-        <v>9.210526315789473</v>
-      </c>
-      <c r="M39">
-        <v>9.210526315789473</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="C40">
-        <v>7.18954248366013</v>
-      </c>
-      <c r="D40">
-        <v>6.535947712418301</v>
-      </c>
-      <c r="E40">
-        <v>3.92156862745098</v>
-      </c>
-      <c r="F40">
-        <v>5.228758169934641</v>
-      </c>
-      <c r="G40">
-        <v>5.228758169934641</v>
-      </c>
-      <c r="H40">
-        <v>10.45751633986928</v>
-      </c>
-      <c r="I40">
-        <v>14.37908496732026</v>
-      </c>
-      <c r="J40">
-        <v>12.41830065359477</v>
-      </c>
-      <c r="K40">
-        <v>6.535947712418301</v>
-      </c>
-      <c r="L40">
-        <v>11.76470588235294</v>
-      </c>
-      <c r="M40">
-        <v>10.45751633986928</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41">
-        <v>4</v>
-      </c>
-      <c r="B41">
-        <v>13.86138613861386</v>
-      </c>
-      <c r="C41">
-        <v>7.920792079207921</v>
-      </c>
-      <c r="D41">
-        <v>12.87128712871287</v>
-      </c>
-      <c r="E41">
-        <v>11.88118811881188</v>
-      </c>
-      <c r="F41">
-        <v>3.96039603960396</v>
-      </c>
-      <c r="H41">
-        <v>6.930693069306932</v>
-      </c>
-      <c r="I41">
-        <v>4.95049504950495</v>
-      </c>
-      <c r="J41">
-        <v>4.95049504950495</v>
-      </c>
-      <c r="K41">
-        <v>10.89108910891089</v>
-      </c>
-      <c r="L41">
-        <v>12.87128712871287</v>
-      </c>
-      <c r="M41">
-        <v>8.91089108910891</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
-      </c>
-      <c r="C44">
-        <v>7.5</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>15</v>
-      </c>
-      <c r="H44">
-        <v>22.5</v>
-      </c>
-      <c r="I44">
-        <v>10</v>
-      </c>
-      <c r="J44">
-        <v>5</v>
-      </c>
-      <c r="K44">
-        <v>2.5</v>
-      </c>
-      <c r="L44">
-        <v>5</v>
-      </c>
-      <c r="M44">
-        <v>22.5</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="B45">
-        <v>6.375838926174497</v>
-      </c>
-      <c r="C45">
-        <v>7.718120805369128</v>
-      </c>
-      <c r="D45">
-        <v>12.75167785234899</v>
-      </c>
-      <c r="E45">
-        <v>9.060402684563758</v>
-      </c>
-      <c r="F45">
-        <v>11.40939597315436</v>
-      </c>
-      <c r="G45">
-        <v>8.053691275167784</v>
-      </c>
-      <c r="H45">
-        <v>6.711409395973154</v>
-      </c>
-      <c r="I45">
-        <v>7.046979865771812</v>
-      </c>
-      <c r="J45">
-        <v>5.369127516778524</v>
-      </c>
-      <c r="K45">
-        <v>7.38255033557047</v>
-      </c>
-      <c r="L45">
-        <v>8.724832214765101</v>
-      </c>
-      <c r="M45">
-        <v>9.395973154362416</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46">
-        <v>9</v>
-      </c>
-      <c r="B46">
-        <v>1.265822784810127</v>
-      </c>
-      <c r="C46">
-        <v>1.265822784810127</v>
-      </c>
-      <c r="D46">
-        <v>15.18987341772152</v>
-      </c>
-      <c r="E46">
-        <v>8.860759493670885</v>
-      </c>
-      <c r="F46">
-        <v>12.65822784810127</v>
-      </c>
-      <c r="G46">
-        <v>10.12658227848101</v>
-      </c>
-      <c r="H46">
-        <v>8.860759493670885</v>
-      </c>
-      <c r="I46">
-        <v>7.59493670886076</v>
-      </c>
-      <c r="J46">
-        <v>10.12658227848101</v>
-      </c>
-      <c r="K46">
-        <v>5.063291139240507</v>
-      </c>
-      <c r="L46">
-        <v>2.531645569620253</v>
-      </c>
-      <c r="M46">
-        <v>16.45569620253164</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47">
-        <v>10</v>
-      </c>
-      <c r="B47">
-        <v>5.434782608695652</v>
-      </c>
-      <c r="C47">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="D47">
-        <v>13.58695652173913</v>
-      </c>
-      <c r="E47">
-        <v>10.32608695652174</v>
-      </c>
-      <c r="F47">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="G47">
-        <v>14.67391304347826</v>
-      </c>
-      <c r="H47">
-        <v>7.608695652173914</v>
-      </c>
-      <c r="I47">
-        <v>3.260869565217391</v>
-      </c>
-      <c r="J47">
-        <v>7.065217391304348</v>
-      </c>
-      <c r="K47">
-        <v>4.891304347826087</v>
-      </c>
-      <c r="L47">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="M47">
-        <v>2.717391304347826</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48">
-        <v>11</v>
-      </c>
-      <c r="B48">
-        <v>8.681672025723474</v>
-      </c>
-      <c r="C48">
-        <v>4.501607717041801</v>
-      </c>
-      <c r="D48">
-        <v>8.038585209003216</v>
-      </c>
-      <c r="E48">
-        <v>8.681672025723474</v>
-      </c>
-      <c r="F48">
-        <v>11.57556270096463</v>
-      </c>
-      <c r="G48">
-        <v>8.360128617363344</v>
-      </c>
-      <c r="H48">
-        <v>15.7556270096463</v>
-      </c>
-      <c r="I48">
-        <v>6.752411575562702</v>
-      </c>
-      <c r="J48">
-        <v>9.646302250803858</v>
-      </c>
-      <c r="K48">
-        <v>7.395498392282958</v>
-      </c>
-      <c r="L48">
-        <v>6.430868167202572</v>
-      </c>
-      <c r="M48">
-        <v>4.180064308681672</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49">
-        <v>12</v>
-      </c>
-      <c r="B49">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="C49">
-        <v>3.92156862745098</v>
-      </c>
-      <c r="D49">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="E49">
-        <v>1.96078431372549</v>
-      </c>
-      <c r="F49">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="G49">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="H49">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="I49">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="J49">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="K49">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="L49">
-        <v>7.84313725490196</v>
-      </c>
-      <c r="M49">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2015-2019</t>
+          <t>2012-2016</t>
         </is>
       </c>
     </row>
